--- a/biology/Botanique/Hitchenia/Hitchenia.xlsx
+++ b/biology/Botanique/Hitchenia/Hitchenia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hitchenia est un genre de plantes à fleurs de la famille des Zingiberaceae présente en Birmanie, décrit et dessiné pour la première fois en 1834 par Nathaniel Wallich, botaniste danois. Il ne contient qu'une seule espèce.
 </t>
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (20 sept. 2011)[1]
-Hitchenia glauca Wall. (1834 publ. 1835)
-Selon NCBI  (18 juil. 2010)[2]
-Hitchenia glauca
-Selon ITIS      (18 juil. 2010)[3]
-Hitchenia caulina (J. Graham) Baker</t>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (20 sept. 2011)[1]</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Hitchenia glauca Wall. (1834 publ. 1835)</t>
         </is>
       </c>
     </row>
@@ -543,12 +556,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (18 juil. 2010)[2]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hitchenia glauca</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hitchenia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hitchenia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (18 juil. 2010)[3]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Hitchenia caulina (J. Graham) Baker</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hitchenia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hitchenia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (20 sept 2011)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (20 sept 2011) :
 Hitchenia careyana Benth. (1883) = Larsenianthus careyanus (Benth.) W.J.Kress &amp; Mood
 Hitchenia caulina (J.Graham) Baker (1890) = Curcuma caulina J.Graham, (1839).
 Hitchenia musacea Baker, (1892) = Stachyphrynium latifolium (Blume) K.Schum. (1902).
